--- a/Base/Teams/Patriots/Team Data.xlsx
+++ b/Base/Teams/Patriots/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7</t>
-  </si>
-  <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14</t>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7</t>
+  </si>
+  <si>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63</t>
-  </si>
-  <si>
-    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16</t>
+    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56</t>
+  </si>
+  <si>
+    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27</t>
   </si>
   <si>
     <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37</t>
   </si>
   <si>
-    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8</t>
+    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -704,10 +704,10 @@
         <v>27</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>878</v>
@@ -721,13 +721,13 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>150</v>
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>84</v>
@@ -748,10 +748,10 @@
         <v>26</v>
       </c>
       <c r="L3">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M3">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>818</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>319</v>
       </c>
       <c r="N2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2">
         <v>20</v>
@@ -996,37 +996,37 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J3">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="M3">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N3">
         <v>26</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>751</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1233,22 +1233,22 @@
         <v>413</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/Team Data.xlsx
+++ b/Base/Teams/Patriots/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7</t>
-  </si>
-  <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6</t>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
+  </si>
+  <si>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56</t>
-  </si>
-  <si>
-    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27</t>
-  </si>
-  <si>
-    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37</t>
-  </si>
-  <si>
-    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0</t>
+    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54</t>
+  </si>
+  <si>
+    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20</t>
+  </si>
+  <si>
+    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20</t>
+  </si>
+  <si>
+    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>301</v>
       </c>
       <c r="N2">
+        <v>28</v>
+      </c>
+      <c r="O2">
         <v>27</v>
       </c>
-      <c r="O2">
-        <v>24</v>
-      </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
         <v>878</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F3">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I3">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J3">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="M3">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="N3">
         <v>35</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>867</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>22</v>
@@ -952,19 +952,19 @@
         <v>16</v>
       </c>
       <c r="F2">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>319</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>939</v>
@@ -996,7 +996,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1005,28 +1005,28 @@
         <v>45</v>
       </c>
       <c r="F3">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>43</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M3">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N3">
         <v>26</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>811</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1239,10 +1239,10 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L2">
         <v>119</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/Team Data.xlsx
+++ b/Base/Teams/Patriots/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16</t>
-  </si>
-  <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19</t>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21</t>
+  </si>
+  <si>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,19 +161,19 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54</t>
-  </si>
-  <si>
-    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20</t>
-  </si>
-  <si>
-    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20</t>
-  </si>
-  <si>
-    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0</t>
+    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62</t>
+  </si>
+  <si>
+    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31</t>
+  </si>
+  <si>
+    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17</t>
+  </si>
+  <si>
+    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15</t>
   </si>
   <si>
     <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
@@ -668,19 +668,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -689,28 +689,28 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="M2">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="N2">
         <v>28</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="P2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q2">
-        <v>878</v>
+        <v>940</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G3">
         <v>47</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I3">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>289</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>11</v>
@@ -964,28 +964,28 @@
         <v>15</v>
       </c>
       <c r="J2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="M2">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q2">
-        <v>939</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>70</v>
+      </c>
+      <c r="H3">
         <v>45</v>
       </c>
-      <c r="F3">
-        <v>177</v>
-      </c>
-      <c r="G3">
-        <v>67</v>
-      </c>
-      <c r="H3">
-        <v>43</v>
-      </c>
       <c r="I3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H2">
         <v>6</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,13 +1345,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>17</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1409,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/Team Data.xlsx
+++ b/Base/Teams/Patriots/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21</t>
-  </si>
-  <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2</t>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
+  </si>
+  <si>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62</t>
-  </si>
-  <si>
-    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31</t>
-  </si>
-  <si>
-    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17</t>
-  </si>
-  <si>
-    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0</t>
+    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61</t>
+  </si>
+  <si>
+    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20</t>
+  </si>
+  <si>
+    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9</t>
+  </si>
+  <si>
+    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -689,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="M2">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="N2">
         <v>28</v>
@@ -710,7 +710,7 @@
         <v>20</v>
       </c>
       <c r="Q2">
-        <v>940</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F3">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H3">
         <v>37</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -943,25 +943,25 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <v>71</v>
@@ -970,10 +970,10 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>541</v>
+        <v>568</v>
       </c>
       <c r="M2">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="N2">
         <v>29</v>
@@ -985,7 +985,7 @@
         <v>26</v>
       </c>
       <c r="Q2">
-        <v>1015</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G3">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I3">
         <v>97</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>275</v>
       </c>
       <c r="N3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,25 +1215,25 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <v>4</v>
@@ -1245,10 +1245,10 @@
         <v>199</v>
       </c>
       <c r="L2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -1368,7 +1368,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Patriots/Team Data.xlsx
+++ b/Base/Teams/Patriots/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9</t>
-  </si>
-  <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28</t>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 3 3 5 1 1 2 5 1 1 8 2 1 4 3 0 -1 6 2 0 -4 13 1 12 -1 4 0 2 3 -1 2 9 3 5 13 6 5 4 17 5 8 13 3 -1 1 7 38 6 4 5 48 -1 0 2 2 21 3 14 2 2 8 5 2 2 3 4 10 18 -1 2 1 2 3 6 2 5 6 -1 8 4 4 7 0 9 41 4 2 5 3 5 1 10 6 2 12 7 1 6 0 1 -1 2 2 0 4 0 7 2 2 38 1 6 1 12 3 5 2 4 5 6 2 2 3 7 12 2 4 3 3 9 10 6 -3 2 2 2 6 7 4 9 3 -2 2 2 5 2 2 4 2 6 -2 2 3 6 8 5 10 5 22 13 18 7 1 2 6 2 19 3 6 1 5 12 3 0 5 1 1 3 5 10 12 -1 1 3 11 2 5 5 3 7 4 6 1 3 7 2 2 7 6 1 -4 2 3 21 2 0 1 4 5 7 4 7 3 0 6 7 4 3 4 4 12 5 1 13 4 16 25 4 12 3 4 1 -2 -1 0 9 1 1 0 -1 8 8 1 2 -2 3 4 7 2 1 9 7 4 11 3 4 5 3 3 -1 0 8 -2 -3 9 2 2 6 0 4 4 -2 0 5 6 10 1 8 4 3 -1 15 3 0 18 6 6 0 0 1 4 -8 1 2 0 14 2 7 8 11 14 1 4 4 1 4 1 14 10 2 0 3 12 3 1 5 1 4 2 4 1 2 3 6 3 2 7 5 3 3 4 -4 0 3 5 0 1 3 12 1 6 5 9 8 4 4 3 1 2 1 0 0 7 33 7 4 9 3 3 3 1 6 -1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 29 -3 3 2 8 6 1 21 28 3 9 2 7 3 7 1 8 -2 2 2 3 2 0 13 49 3 10 3 -1 0 -1 4 2 5 6 3 5 4 5 5 9 2 8 2 7 12 1 9 1 2 -1 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 4 1 -1 9 2 5 2 7 7 2 4 2 26 9 16 1 -1 1 5 -2 12 3 -1 -5 7 -2 4 3 6 1 2 0 1 17 17 2 2 2 0 -1 7 12 -4 0 0 0 -1 1 4 4 12 0 7 0 1 7 4 -1 4 0 -3 3 -3 4 7 5 15 4 0 8 3 1 24 9 3 2 5 1 21 4 4 5 3 1 1 1 11 -1 6 9 1 3 4 1 21 6 6 3 1 0 0 6 5 2 12 5 9 2 32 6 1 3 10 10 0 13 3 0 -2 15 5 2 4 9 6 3 -2 1 6 -1 -2 0 1 3 -1 3 4 1 8 5 6 5 6 3 7 4 7 5 2 6 10 4 6 5 4 -2 6 3 2 14 -1 6 3 2 0 1 0 1 1 2 2 2 0 16 12 1 5 2 -1 6 2 13 3 3 2 8 4 11 12 2 -2 3 6 5 1 4 11 2 5 1 7 -6 1 2 9 0 5 -1 15 9 13 4 0 5 5 4 18 2 3 1 5 1 -1 16 11 5 1 5 22 17 2 5 10 -1 2 3 0 1 1 1 21 3 2 1 2 14 17 2 1 5 13 -1 7 -1 5 12 2 10 0 4 1 6 2 7 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 2 4 1 2 4 -1 -1 6 64 10 6 0 16 3 3 2 -2 -4 10 17 2 1 5 4 7 3 4 1 22 11 6 -1 4 1 10 5 5 -3 -5 3 -1 2 2 4 12 1 4 -2 4 -3 -2 13 9 3 2 5 3 6 11 0 18 2 0 9 5 9 0 0 2 1 16 1 7 31 2 0 2 2 1 3 1 9 6 8 11 3 4 1 4 15 7 2 6 9 2 9 7 0 7 5 4 8 2 4 4 7 10 8 -1 4 1 13 5 3 7 4 6 4 8 3 6 7 -1 8 4 15 -1 3 5 1 7 12 9 2 4 6 19 0 4 4 6 5 -1 2 4 1 2 1 16 5 2 2 3 2 3 14 14 0 0 1 8 2 7 1 5 1</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 15 14 8 19 18 -2 16 7 26 12 17 4 9 2 49 16 3 1 20 8 -2 12 16 33 13 3 17 18 12 3 3 14 15 0 9 23 5 7 11 6 15 6 8 -1 27 11 7 6 13 11 0 8 8 9 15 -4 5 8 19 0 25 4 12 30 13 9 7 7 12 10 16 14 12 10 16 5 19 -2 22 6 -3 16 6 6 3 1 20 21 12 16 11 8 8 3 13 17 8 15 7 16 8 28 10 15 9 9 13 5 22 9 8 8 7 9 5 8 33 11 4 5 5 6 13 15 -1 7 20 8 0 6 1 10 11 8 4 19 31 11 5 20 3 4 19 20 7 4 4 24 26 8 6 12 1 4 34 17 7 -2 20 9 0 6 13 30 2 42 15 19 9 8 12 16 4 11 14 4 6 10 9 50 17 13 7 11 7 17 8 -1 5 15 3 -5 10 9 7 3 6 5 1 15 0 23 38 0 5 25 31 5 13 6 4 30 2 7 6 6 6 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 9 7 3 7 8 22 6 6 10 17 7 13 6 13 18 7 10 12 10 6 10 12 2 7 10 12 2 19 26 11 31 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 7 5 5 2 7 -1 2 28 19 3 24 -1 10 10 3 11 8 9 32 3 -1 1 -1 14 7 2 9 6 17 31 13 7 3 10 8 27 7 9 4 4 4 4 11 5 22 9 10 4 5 -5 10 7 4 5 7 17 1 16 15 5 16 7 3 11 4 12 15 9 4 4 21 13 5 10 12 15 1 12 3 21 30 0 9 7 7 15 11 6 9 17 23 4 5 7 16 9 3 3 21 20 1 -3 4 10 13 24 3 10 9 14 22 20 27 0 8 7 3 5 11 3 11 75 14 28 25 3 24 5 4 19 3 15 28 9 11 4 8 4 1 9 20 4 26 3 22 8 46 22 29 28 14 44 2 5 11 33 7 10 4 15 7 14 2 7 17 15 9 2 7 8 12 -1 4 9 41 3 28 3 7 18 2 12 7 11 20 3 12 26 23 4 8 5 1 10 19 17 0 15 3 26 48 11 5 5 17 6 9 9 19 12 6 9 5 18 6 10 10 6 6 15 3 19 2 10 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 12 7 4 10 9 4 3 5 15 25 7 9 10 14 10 8 11 13 12 12 9 20 4 12 43 7 9 16 9 13 5 14 6 10 9 3 6 9 13 21 8 7 12 6 14 9 17 8 6 8 8 4 12 20 20 17 8 8 8 7 7 13 46 8 9 2 5 35 7 5 13 23 17 6 2 28 6 32 5 1 18 39 11 8 9 30 4 12 10 2 5 8 7 10 7 1 43 4 7 15 3 6 2 18</t>
+  </si>
+  <si>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 4 7 5 6 2 21 3 5 0 1 9 2 0 5 10 3 5 13 7 3 6 8 2 6 3 3 5 6 3 12 6 7 6 6 5 -1 2 23 13 3 1 2 4 4 3 2 -1 9 3 14 3 6 5 1 3 13 1 9 4 2 1 5 -1 11 4 1 2 1 18 9 4 2 4 3 4 4 2 11 9 2 3 20 2 9 3 6 4 0 5 1 9 2 1 4 1 -2 3 -2 8 0 3 -3 1 9 14 -1 0 3 4 4 2 3 -2 5 3 13 9 1 4 7 17 6 3 4 20 5 16 8 5 7 3 6 6 9 10 -1 1 2 0 9 3 2 1 -1 3 6 3 0 19 21 8 -2 2 4 6 1 2 7 6 6 18 4 2 2 5 9 17 2 12 3 -2 2 2 3 8 14 1 -1 5 4 3 2 3 3 2 15 3 7 1 2 3 3 3 1 0 5 -1 4 4 3 1 5 7 5 3 3 9 5 1 3 5 6 1 2 1 8 5 -2 7 11 0 8 2 1 -2 1 2 8 -1 7 4 11 3 3 3 3 2 3 3 1 1 3 14 7 2 -2 4 2 0 3 3 3 4 2 9 -1 9 5 2 4 4 15 4 13 6 2 1 1 5 4 4 4 1 9 2 7 -1 1 3 3 6 8 5 8 5 6 6 35 2 4 14 9 6 11 2 1 1 4 6 6 8 25 3 2 1 9 1 4 0 2 3 3 0 3 6 3 4 -2 -1 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 3 2 4 -1 5 3 11 5 2 3 11 4 4 1 3 3 2 2 11 6 2 5 4 2 3 12 4 9 3 4 7 3 3 3 1 8 10 1 0 1 4 15 1 5 2 8 5 5 4 2 3 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 8 13 3 6 1 3 7 3 3 -1 17 5 1 4 4 6 10 -3 4 -2 10 17 3 0 0 4 4 14 11 2 1 0 5 0 7 5 3 6 5 3 3 3 3 8 5 2 7 9 5 7 5 -1 1 -2 1 -3 3 11 3 14 6 3 2 5 5 4 21 -1 11 3 4 3 3 6 3 4 6 8 0 1 7 7 3 8 6 1 4 6 4 1 -2 3 2 8 1 1 2 11 1 2 5 3 0 2 1 3 1 2 1 3 7 1 13 3 4 3 2 2 5 0 2 -1 9 4 1 12 3 4 -1 0 0 0 1 3 9 0 2 4 4 21 8 8 10 2 7 1 3 5 5 0 5 1 3 6 3 1 6 -3 19 4 3 6 3 5 3 10 75 3 3 1 9 3 2 28 4 2 2 3 0 2 4 2 0 4 4 4 -2 3 10 2 1 3 9 6 0 3 0 4 10 1 4 4 5 10 24 19 0 3 1 2 5 2 -3 4 5 3 9 1 3 3 5 -2 1 3 -3 3 0 12 2 1 0 2 5 5 0 -1 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 3 0 4 0 2 2 1 4 4 5 3 3 1 1 5 3 6 3 2 21 3 0 17 5 1 37 11 4 6 4 5 3 4 2 3 1 11 7 2 3 1 0 9 7 1 6 3 7 -2 2 12 6 3 0 0 -4 1 2 67 3 3 5 1 5 3 25 2 6 2 -1 8 3 7 3 2 11 1 2 2 7 2 0 0 5 4 15 5 2 5 1 5 1 4 2 4 3 4 9 5 4 7 4 2 5 4 3 0 7 5 2 1 10 6 5 3 1 3 3 11 9 1 27 7 3 5 1 3 1 4 3 2 2 23 4 -1 5 2 -2 4 11 3 2 0 4 26 15 1 7 6 5 9 3 8 2 4 9 1 3 9 16 2 15 10 1 3 7 6 4 0</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 9 6 9 16 6 4 9 7 7 12 54 9 4 1 9 38 14 21 9 19 8 18 18 22 14 6 14 6 6 1 4 34 0 3 24 11 13 5 2 7 10 8 12 1 7 13 8 22 17 11 2 14 21 24 8 5 5 10 6 19 45 6 6 6 1 41 7 4 18 27 17 16 35 16 8 7 23 15 14 1 14 19 20 7 8 15 16 9 13 23 6 35 18 3 11 6 12 20 12 8 12 5 41 11 21 6 5 26 5 5 11 4 13 17 50 23 15 20 8 6 19 12 15 8 17 13 21 19 6 11 31 2 3 8 9 9 12 6 7 4 14 8 6 18 10 11 3 1 13 6 4 44 2 22 3 16 6 25 21 18 9 24 4 14 4 6 7 13 22 9 6 4 4 14 20 4 19 4 8 5 16 9 6 8 17 4 9 13 6 7 -1 7 3 5 8 3 6 6 2 12 3 14 1 5 11 0 15 24 5 5 4 9 24 4 7 2 1 6 20 1 13 7 7 9 0 25 3 -2 14 16 9 7 9 7 6 2 8 6 5 2 20 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 6 17 10 6 2 0 2 4 24 6 13 4 17 50 15 11 7 10 10 18 3 9 9 20 27 8 10 1 8 10 0 20 6 4 15 6 11 18 15 12 21 53 10 9 2 5 11 12 9 8 8 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 27 7 11 9 8 5 3 17 4 5 3 27 5 8 6 6 12 12 9 12 17 11 11 6 13 4 9 7 10 12 7 8 6 13 13 28 3 6 0 27 8 1 4 28 26 11 11 9 7 23 18 11 8 8 10 7 11 7 67 9 16 13 37 7 15 5 -5 27 27 27 3 14 8 11 14 11 18 17 3 23 1 13 6 13 44 20 11 3 11 4 13 0 18 27 20 1 13 12 33 3 2 4 12 24 14 6 9 7 35 12 13 7 -2 6 15 3 7 22 5 17 21 8 7 21 8 8 12 15 6 7 3 4 6 6 16 12 41 6 1 13 5 5 9 11 11 15 14 7 6 18 11 14 24 13 6 2 6 5 33 13 -3 6 21 19 17 6 9 7 12 6 13 11 11 -1 9 6 9 2 11 5 18 3 9 5 18 6 12 1 9 8 9 9 7 0 10 0 6 5 11 4 19 16 17 4 8 10 2 14 8 1 2 3 24 7 14 -3 5 8 14 16 6 11 19 7 11 7 26 5 7 6 7 8 23 0 19 11 8 7 13 7 8 12 9 4 13 3 10 1 12 9 11 18 9 11 11 6 5 28 9 17 15 19 2 7 9 40 2 8 24 11 22 5 4 3 -5 4 16 6 9 28 9 4 5 13 7 9 7 17 4 3 5 9 2 0 15 9 0 7 8 24 2 19 6 11 22 19 45 4 9 4 34 8 19 19 38 1</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61</t>
-  </si>
-  <si>
-    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20</t>
-  </si>
-  <si>
-    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9</t>
-  </si>
-  <si>
-    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0</t>
+    <t>64 66 64 64 66 62 61 65 62 66 66 64 67 62 67 62 60 62 64 60 58 66 68 52 62 50 66 67 64 60 61 54 65 61 61 62 56 63 64 51 68 26 64 64 67 67 60 63 61 59 64 67 64 67 65 67 66 66 61 68 56 54 54 60 66 65 64 65 65 64 54 67 62 64 61 67 63 56 60 65 54 63 62 67 61 62 60 61 62 62 50 58 57 42</t>
+  </si>
+  <si>
+    <t>24 44 21 22 12 15 13 21 18 20 28 20 25 15 28 24 22 18 15 18 16 26 31 13 21 13 11 49 20 22 16 0 38 18 21 23 16 0 13 10 24 0 26 22 24 25 22 27 27 22 23 25 19 25 17 25 29 21 22 19 20 12 22 18 28 19 25 28 21 16 17 27 18 20 22 30 16 27 21 22 20 18 31 25 18 16 9 20 20 18 15 5 15 0</t>
+  </si>
+  <si>
+    <t>30 24 17 28 17 20 33 24 21 29 31 15 31 26 21 19 13 24 21 24 31 22 53 0 27 9 23 19 18 21 16 17 23 18 0 25 0 18 21 23 24 31 26 26 30 14 25 21 26 37 20 17 14 27 9 24 15 16 21 25 26</t>
+  </si>
+  <si>
+    <t>40 24 55 57 56 41 54 51 58 32 60 53 44 46 25 64 49 35 59 35 46 52 40 53 59 39 50 59 60 65 40 39 53 59 54 32 40 71 54 56 37 62 49 46 50 42 57 56 47 37 45 38 65 40 37 62 32 48 44 35 60 64 52 58 41 68 37 49 44 59 58 58 44 41 42 34 35 46 38 62 55 42 55 66 44 42 60 47 48 36 15 46 45 39 71 46 34 46 49 63 40 46 45 47 47 42 53</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 20 0 0 0 0 0 0 0 0 0 0 0 0 0 14 0 0 0 0 7 7 0 0 7 0 0 0 0 0 8 0 0 0 0 0 0 0 7 6 0 12 0 7 0 0 0 0 0 0 0 0 18 0 6 0 0 0 25 0 0 0 0 0 10 0 5 12 11 -1 0 -1 0 0 0 0 12 0 0 4 0 0 0 11 0 0 8 0 0 0 0 0 0 0 4 15 15 3 0 0 0 0 2 52</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 12 0 11 0 0 12 0 0 0 0 0 0 0 0 15 0 0 0 0 0 0 0 5 3 0 9 70 0 14 61 0 19 3 21 6 4 3 13 0 0 5 0 17 8 12 0 7 0 -1 14 0 0 8 0 18 12 0 0 11 6 0 13 0 23 17 13 21 22 10 0 27 0 18 15 7 0 0 0 0 0 10 0 0 17 0 15 8 0 0 0 0 1 0 0 0 0 0 11 0 9 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>19</v>
       </c>
       <c r="F2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>340</v>
       </c>
       <c r="N2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q2">
         <v>1008</v>
@@ -721,37 +721,37 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F3">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J3">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="M3">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>938</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,10 +976,10 @@
         <v>366</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2">
         <v>26</v>
@@ -993,10 +993,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -1005,28 +1005,28 @@
         <v>48</v>
       </c>
       <c r="F3">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G3">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="M3">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="N3">
         <v>28</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>862</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -1245,10 +1245,10 @@
         <v>199</v>
       </c>
       <c r="L2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N2">
         <v>53</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
